--- a/biology/Zoologie/Chlorocebus_aethiops/Chlorocebus_aethiops.xlsx
+++ b/biology/Zoologie/Chlorocebus_aethiops/Chlorocebus_aethiops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grivet, Grivet d'Éthiopie
 Le Grivet (Chlorocebus aethiops) est une espèce de primate africain de la famille des Cercopithecidae. Ces singes se trouvent en Éthiopie, en Érythrée, au Soudan et à Djibouti.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure de 40 à 60 cm et pèse de 3 à 5 kg. Le mâle est plus grand que la femelle[1].
-Ce singe possède des testicules de couleur bleue[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure de 40 à 60 cm et pèse de 3 à 5 kg. Le mâle est plus grand que la femelle.
+Ce singe possède des testicules de couleur bleue.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvant vivre jusqu'à l'âge de 30 ans, il atteint sa maturité sexuelle à 4 ans. Sa gestation dure 160 jours et n'a qu'un seul petit à la fois[réf. nécessaire].
 </t>
@@ -575,9 +591,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grivet[3],[4],[5], Singe grivet[3], Grivet d’Éthiopie[4]. Il est également appelé Singe vert[3], Vervet[3] et Callitriche[4], bien que ces noms désignent aussi d'autres espèces.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grivet Singe grivet, Grivet d’Éthiopie. Il est également appelé Singe vert, Vervet et Callitriche, bien que ces noms désignent aussi d'autres espèces.
 </t>
         </is>
       </c>
